--- a/Shablon/TDS2002.xlsx
+++ b/Shablon/TDS2002.xlsx
@@ -1086,7 +1086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1174,9 +1174,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1217,6 +1214,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1289,15 +1295,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1607,8 +1604,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A61" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A64" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1622,74 +1619,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1703,15 +1700,15 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="35" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="20" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="34"/>
@@ -1731,17 +1728,17 @@
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="27" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="28"/>
@@ -1749,12 +1746,12 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="37" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="36" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="28"/>
@@ -1765,11 +1762,11 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -1779,12 +1776,12 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="45" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="44" t="s">
         <v>234</v>
       </c>
       <c r="E12" s="28"/>
@@ -1795,12 +1792,12 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="37" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="36" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="28"/>
@@ -1811,11 +1808,11 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="26" t="s">
         <v>92</v>
       </c>
@@ -1827,11 +1824,11 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="27" t="s">
         <v>94</v>
       </c>
@@ -1869,113 +1866,113 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="58" t="s">
+      <c r="F18" s="53"/>
+      <c r="G18" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="58"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72" t="s">
+      <c r="F20" s="73"/>
+      <c r="G20" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="72"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71" t="s">
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72" t="s">
+      <c r="F21" s="73"/>
+      <c r="G21" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="72"/>
+      <c r="H21" s="74"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72" t="s">
+      <c r="F22" s="73"/>
+      <c r="G22" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="72"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="72"/>
+      <c r="H23" s="74"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72" t="s">
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="72"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2102,94 +2099,94 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51" t="s">
+      <c r="D35" s="53"/>
+      <c r="E35" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51" t="s">
+      <c r="F35" s="53"/>
+      <c r="G35" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51" t="s">
+      <c r="H35" s="53"/>
+      <c r="I35" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="J35" s="51"/>
+      <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
       <c r="G39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
@@ -2198,24 +2195,24 @@
       <c r="B41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57" t="s">
+      <c r="D41" s="59"/>
+      <c r="E41" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="57"/>
+      <c r="F41" s="59"/>
       <c r="G41" s="11" t="s">
         <v>102</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I41" s="59">
+      <c r="I41" s="61">
         <v>4</v>
       </c>
-      <c r="J41" s="59"/>
+      <c r="J41" s="61"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
@@ -2224,22 +2221,22 @@
       <c r="B42" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57" t="s">
+      <c r="D42" s="59"/>
+      <c r="E42" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="57"/>
+      <c r="F42" s="59"/>
       <c r="G42" s="11" t="s">
         <v>106</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
@@ -2248,24 +2245,24 @@
       <c r="B43" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57" t="s">
+      <c r="D43" s="59"/>
+      <c r="E43" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="57"/>
+      <c r="F43" s="59"/>
       <c r="G43" s="11" t="s">
         <v>110</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="I43" s="66" t="s">
+      <c r="I43" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="J43" s="66"/>
+      <c r="J43" s="68"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
@@ -2274,22 +2271,22 @@
       <c r="B44" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57" t="s">
+      <c r="D44" s="59"/>
+      <c r="E44" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="57"/>
+      <c r="F44" s="59"/>
       <c r="G44" s="11" t="s">
         <v>114</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
@@ -2298,22 +2295,22 @@
       <c r="B45" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57" t="s">
+      <c r="D45" s="59"/>
+      <c r="E45" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="57"/>
+      <c r="F45" s="59"/>
       <c r="G45" s="11" t="s">
         <v>118</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
@@ -2322,22 +2319,22 @@
       <c r="B46" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57" t="s">
+      <c r="D46" s="59"/>
+      <c r="E46" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="57"/>
+      <c r="F46" s="59"/>
       <c r="G46" s="11" t="s">
         <v>122</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
@@ -2346,22 +2343,22 @@
       <c r="B47" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57" t="s">
+      <c r="D47" s="59"/>
+      <c r="E47" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="57"/>
+      <c r="F47" s="59"/>
       <c r="G47" s="11" t="s">
         <v>126</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
     </row>
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
@@ -2370,22 +2367,22 @@
       <c r="B48" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57" t="s">
+      <c r="D48" s="59"/>
+      <c r="E48" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F48" s="57"/>
+      <c r="F48" s="59"/>
       <c r="G48" s="11" t="s">
         <v>130</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
@@ -2394,22 +2391,22 @@
       <c r="B49" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57" t="s">
+      <c r="D49" s="59"/>
+      <c r="E49" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="F49" s="57"/>
+      <c r="F49" s="59"/>
       <c r="G49" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
@@ -2418,22 +2415,22 @@
       <c r="B50" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57" t="s">
+      <c r="D50" s="59"/>
+      <c r="E50" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="57"/>
+      <c r="F50" s="59"/>
       <c r="G50" s="11" t="s">
         <v>138</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
@@ -2442,22 +2439,22 @@
       <c r="B51" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="57" t="s">
+      <c r="C51" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57" t="s">
+      <c r="D51" s="59"/>
+      <c r="E51" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="F51" s="57"/>
+      <c r="F51" s="59"/>
       <c r="G51" s="11" t="s">
         <v>142</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="I51" s="66"/>
-      <c r="J51" s="66"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -2484,94 +2481,94 @@
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51" t="s">
+      <c r="D54" s="53"/>
+      <c r="E54" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51" t="s">
+      <c r="F54" s="53"/>
+      <c r="G54" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51" t="s">
+      <c r="H54" s="53"/>
+      <c r="I54" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="J54" s="51"/>
+      <c r="J54" s="53"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="58"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="58"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="58"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
       <c r="G58" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
     </row>
     <row r="60" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
@@ -2580,24 +2577,24 @@
       <c r="B60" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C60" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57" t="s">
+      <c r="D60" s="59"/>
+      <c r="E60" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="F60" s="57"/>
+      <c r="F60" s="59"/>
       <c r="G60" s="11" t="s">
         <v>146</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="I60" s="59">
+      <c r="I60" s="61">
         <v>4</v>
       </c>
-      <c r="J60" s="59"/>
+      <c r="J60" s="61"/>
     </row>
     <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
@@ -2606,22 +2603,22 @@
       <c r="B61" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="57" t="s">
+      <c r="C61" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57" t="s">
+      <c r="D61" s="59"/>
+      <c r="E61" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="F61" s="57"/>
+      <c r="F61" s="59"/>
       <c r="G61" s="11" t="s">
         <v>150</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
     </row>
     <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
@@ -2630,24 +2627,24 @@
       <c r="B62" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="57" t="s">
+      <c r="C62" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57" t="s">
+      <c r="D62" s="59"/>
+      <c r="E62" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="F62" s="57"/>
+      <c r="F62" s="59"/>
       <c r="G62" s="11" t="s">
         <v>154</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="I62" s="66" t="s">
+      <c r="I62" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="J62" s="66"/>
+      <c r="J62" s="68"/>
     </row>
     <row r="63" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
@@ -2656,22 +2653,22 @@
       <c r="B63" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="57" t="s">
+      <c r="C63" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57" t="s">
+      <c r="D63" s="59"/>
+      <c r="E63" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="F63" s="57"/>
+      <c r="F63" s="59"/>
       <c r="G63" s="11" t="s">
         <v>158</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
     </row>
     <row r="64" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
@@ -2680,22 +2677,22 @@
       <c r="B64" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="57" t="s">
+      <c r="C64" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57" t="s">
+      <c r="D64" s="59"/>
+      <c r="E64" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="F64" s="57"/>
+      <c r="F64" s="59"/>
       <c r="G64" s="11" t="s">
         <v>162</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
     </row>
     <row r="65" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
@@ -2704,22 +2701,22 @@
       <c r="B65" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="57" t="s">
+      <c r="C65" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57" t="s">
+      <c r="D65" s="59"/>
+      <c r="E65" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="F65" s="57"/>
+      <c r="F65" s="59"/>
       <c r="G65" s="11" t="s">
         <v>166</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
     </row>
     <row r="66" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
@@ -2728,22 +2725,22 @@
       <c r="B66" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="57" t="s">
+      <c r="C66" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57" t="s">
+      <c r="D66" s="59"/>
+      <c r="E66" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="F66" s="57"/>
+      <c r="F66" s="59"/>
       <c r="G66" s="11" t="s">
         <v>170</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
     </row>
     <row r="67" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
@@ -2752,22 +2749,22 @@
       <c r="B67" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="57" t="s">
+      <c r="C67" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57" t="s">
+      <c r="D67" s="59"/>
+      <c r="E67" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="F67" s="57"/>
+      <c r="F67" s="59"/>
       <c r="G67" s="11" t="s">
         <v>174</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
+      <c r="I67" s="68"/>
+      <c r="J67" s="68"/>
     </row>
     <row r="68" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
@@ -2776,22 +2773,22 @@
       <c r="B68" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="57" t="s">
+      <c r="C68" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57" t="s">
+      <c r="D68" s="59"/>
+      <c r="E68" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="F68" s="57"/>
+      <c r="F68" s="59"/>
       <c r="G68" s="11" t="s">
         <v>178</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="68"/>
     </row>
     <row r="69" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
@@ -2800,22 +2797,22 @@
       <c r="B69" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="57" t="s">
+      <c r="C69" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57" t="s">
+      <c r="D69" s="59"/>
+      <c r="E69" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="F69" s="57"/>
+      <c r="F69" s="59"/>
       <c r="G69" s="11" t="s">
         <v>182</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
     </row>
     <row r="70" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
@@ -2824,22 +2821,22 @@
       <c r="B70" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="57" t="s">
+      <c r="C70" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57" t="s">
+      <c r="D70" s="59"/>
+      <c r="E70" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="F70" s="57"/>
+      <c r="F70" s="59"/>
       <c r="G70" s="11" t="s">
         <v>186</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="68"/>
     </row>
     <row r="71" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
@@ -2859,137 +2856,137 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="58" t="s">
+      <c r="A73" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="58"/>
-      <c r="D73" s="51" t="s">
+      <c r="C73" s="60"/>
+      <c r="D73" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51" t="s">
+      <c r="E73" s="53"/>
+      <c r="F73" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="51"/>
-      <c r="H73" s="58" t="s">
+      <c r="G73" s="53"/>
+      <c r="H73" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="58"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="60"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="58"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="51"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
       <c r="H75" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I75" s="62" t="s">
+      <c r="I75" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="J75" s="63"/>
+      <c r="J75" s="65"/>
     </row>
     <row r="76" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="59">
+      <c r="A76" s="61">
         <v>1</v>
       </c>
       <c r="B76" s="14">
         <v>5</v>
       </c>
-      <c r="C76" s="59" t="s">
+      <c r="C76" s="61" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="16">
         <v>2.5</v>
       </c>
-      <c r="E76" s="59" t="s">
+      <c r="E76" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="F76" s="42" t="s">
+      <c r="F76" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="G76" s="59" t="s">
+      <c r="G76" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="H76" s="42" t="s">
+      <c r="H76" s="41" t="s">
         <v>198</v>
       </c>
       <c r="I76" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J76" s="59" t="s">
+      <c r="J76" s="61" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="59"/>
+      <c r="A77" s="61"/>
       <c r="B77" s="14">
         <v>100</v>
       </c>
-      <c r="C77" s="59"/>
+      <c r="C77" s="61"/>
       <c r="D77" s="16">
         <v>50</v>
       </c>
-      <c r="E77" s="59"/>
-      <c r="F77" s="42" t="s">
+      <c r="E77" s="61"/>
+      <c r="F77" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="G77" s="59"/>
-      <c r="H77" s="42" t="s">
+      <c r="G77" s="61"/>
+      <c r="H77" s="41" t="s">
         <v>199</v>
       </c>
       <c r="I77" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J77" s="59"/>
+      <c r="J77" s="61"/>
     </row>
     <row r="78" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="59"/>
+      <c r="A78" s="61"/>
       <c r="B78" s="14">
         <v>500</v>
       </c>
-      <c r="C78" s="59"/>
+      <c r="C78" s="61"/>
       <c r="D78" s="16">
         <v>250</v>
       </c>
-      <c r="E78" s="59"/>
-      <c r="F78" s="42" t="s">
+      <c r="E78" s="61"/>
+      <c r="F78" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="G78" s="59"/>
-      <c r="H78" s="42" t="s">
+      <c r="G78" s="61"/>
+      <c r="H78" s="41" t="s">
         <v>200</v>
       </c>
       <c r="I78" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J78" s="59"/>
+      <c r="J78" s="61"/>
     </row>
     <row r="79" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="59"/>
+      <c r="A79" s="61"/>
       <c r="B79" s="14">
         <v>1</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D79" s="16">
@@ -2998,128 +2995,128 @@
       <c r="E79" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F79" s="42" t="s">
+      <c r="F79" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="G79" s="59" t="s">
+      <c r="G79" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="H79" s="42" t="s">
+      <c r="H79" s="41" t="s">
         <v>201</v>
       </c>
       <c r="I79" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J79" s="59" t="s">
+      <c r="J79" s="61" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="59"/>
+      <c r="A80" s="61"/>
       <c r="B80" s="14">
         <v>5</v>
       </c>
-      <c r="C80" s="59"/>
+      <c r="C80" s="61"/>
       <c r="D80" s="16">
         <v>2.5</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F80" s="42" t="s">
+      <c r="F80" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="G80" s="59"/>
-      <c r="H80" s="42" t="s">
+      <c r="G80" s="61"/>
+      <c r="H80" s="41" t="s">
         <v>202</v>
       </c>
       <c r="I80" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J80" s="59"/>
+      <c r="J80" s="61"/>
     </row>
     <row r="81" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="59">
+      <c r="A81" s="61">
         <v>2</v>
       </c>
       <c r="B81" s="14">
         <v>5</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="61" t="s">
         <v>68</v>
       </c>
       <c r="D81" s="16">
         <v>2.5</v>
       </c>
-      <c r="E81" s="59" t="s">
+      <c r="E81" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="F81" s="42" t="s">
+      <c r="F81" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="G81" s="59" t="s">
+      <c r="G81" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="H81" s="42" t="s">
+      <c r="H81" s="41" t="s">
         <v>203</v>
       </c>
       <c r="I81" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J81" s="59" t="s">
+      <c r="J81" s="61" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="59"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="14">
         <v>100</v>
       </c>
-      <c r="C82" s="59"/>
+      <c r="C82" s="61"/>
       <c r="D82" s="16">
         <v>50</v>
       </c>
-      <c r="E82" s="59"/>
-      <c r="F82" s="42" t="s">
+      <c r="E82" s="61"/>
+      <c r="F82" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="G82" s="59"/>
-      <c r="H82" s="42" t="s">
+      <c r="G82" s="61"/>
+      <c r="H82" s="41" t="s">
         <v>204</v>
       </c>
       <c r="I82" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J82" s="59"/>
+      <c r="J82" s="61"/>
     </row>
     <row r="83" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="59"/>
+      <c r="A83" s="61"/>
       <c r="B83" s="14">
         <v>500</v>
       </c>
-      <c r="C83" s="59"/>
+      <c r="C83" s="61"/>
       <c r="D83" s="16">
         <v>250</v>
       </c>
-      <c r="E83" s="59"/>
-      <c r="F83" s="42" t="s">
+      <c r="E83" s="61"/>
+      <c r="F83" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="G83" s="59"/>
-      <c r="H83" s="42" t="s">
+      <c r="G83" s="61"/>
+      <c r="H83" s="41" t="s">
         <v>205</v>
       </c>
       <c r="I83" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J83" s="59"/>
+      <c r="J83" s="61"/>
     </row>
     <row r="84" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="59"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="14">
         <v>1</v>
       </c>
-      <c r="C84" s="59" t="s">
+      <c r="C84" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D84" s="16">
@@ -3128,57 +3125,57 @@
       <c r="E84" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F84" s="42" t="s">
+      <c r="F84" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="G84" s="59" t="s">
+      <c r="G84" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="H84" s="42" t="s">
+      <c r="H84" s="41" t="s">
         <v>206</v>
       </c>
       <c r="I84" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J84" s="59" t="s">
+      <c r="J84" s="61" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="59"/>
+      <c r="A85" s="61"/>
       <c r="B85" s="14">
         <v>5</v>
       </c>
-      <c r="C85" s="59"/>
+      <c r="C85" s="61"/>
       <c r="D85" s="16">
         <v>2.5</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F85" s="42" t="s">
+      <c r="F85" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="G85" s="59"/>
-      <c r="H85" s="42" t="s">
+      <c r="G85" s="61"/>
+      <c r="H85" s="41" t="s">
         <v>207</v>
       </c>
       <c r="I85" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J85" s="59"/>
+      <c r="J85" s="61"/>
     </row>
     <row r="86" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="73"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="47"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="46"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="75"/>
-      <c r="I86" s="73"/>
-      <c r="J86" s="73"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
@@ -3195,272 +3192,272 @@
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="53" t="s">
+      <c r="A88" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="B88" s="51" t="s">
+      <c r="B88" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="C88" s="51"/>
-      <c r="D88" s="59" t="s">
+      <c r="C88" s="53"/>
+      <c r="D88" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="E88" s="46"/>
+      <c r="E88" s="45"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="54"/>
-      <c r="B89" s="38" t="s">
+      <c r="A89" s="56"/>
+      <c r="B89" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="D89" s="59"/>
-      <c r="E89" s="47"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="46"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
     </row>
     <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="D90" s="59" t="s">
+      <c r="D90" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="E90" s="48"/>
+      <c r="E90" s="47"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
     </row>
     <row r="91" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="C91" s="41" t="s">
+      <c r="C91" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D91" s="59"/>
-      <c r="E91" s="48"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="47"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="38"/>
     </row>
     <row r="92" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="D92" s="59"/>
-      <c r="E92" s="48"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="47"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="43" t="s">
+      <c r="A93" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="41" t="s">
+      <c r="B93" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="D93" s="59"/>
-      <c r="E93" s="48"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="47"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="39"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="38"/>
     </row>
     <row r="94" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="43" t="s">
+      <c r="A94" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="C94" s="41" t="s">
+      <c r="C94" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="D94" s="59"/>
-      <c r="E94" s="48"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="47"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="39"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="38"/>
     </row>
     <row r="95" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="43" t="s">
+      <c r="A95" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="C95" s="41" t="s">
+      <c r="C95" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="D95" s="59"/>
-      <c r="E95" s="48"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="47"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="39"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="38"/>
     </row>
     <row r="96" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="44" t="s">
+      <c r="A96" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="C96" s="41" t="s">
+      <c r="C96" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="D96" s="59"/>
-      <c r="E96" s="48"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="47"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="39"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="38"/>
     </row>
     <row r="97" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="44" t="s">
+      <c r="A97" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="41" t="s">
+      <c r="B97" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="C97" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="D97" s="59"/>
-      <c r="E97" s="48"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="47"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="39"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="38"/>
     </row>
     <row r="98" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="44" t="s">
+      <c r="A98" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="D98" s="59"/>
-      <c r="E98" s="48"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="47"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="38"/>
     </row>
     <row r="99" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="40" t="s">
+      <c r="A99" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="D99" s="59"/>
-      <c r="E99" s="48"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="47"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="38"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="39"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="38"/>
     </row>
     <row r="101" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="49" t="s">
+      <c r="A101" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="49"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="68"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="70"/>
       <c r="E101" s="9"/>
       <c r="F101" s="33"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="49" t="s">
+      <c r="A102" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="49"/>
+      <c r="B102" s="51"/>
       <c r="C102" s="7"/>
       <c r="D102" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E102" s="55" t="s">
+      <c r="E102" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="F102" s="56"/>
+      <c r="F102" s="58"/>
       <c r="G102" s="9" t="s">
         <v>43</v>
       </c>
       <c r="H102" s="10"/>
     </row>
     <row r="103" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="49" t="s">
+      <c r="A103" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="49"/>
-      <c r="C103" s="50" t="s">
+      <c r="B103" s="51"/>
+      <c r="C103" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D103" s="50"/>
+      <c r="D103" s="52"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>

--- a/Shablon/TDS2002.xlsx
+++ b/Shablon/TDS2002.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="236">
   <si>
     <t>Канал 1</t>
   </si>
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t>Поверку провёл:</t>
-  </si>
-  <si>
-    <t>Протокол № 10/13-11-2023/</t>
   </si>
   <si>
     <t>dcv1+_1</t>
@@ -1086,7 +1083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1173,7 +1170,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1223,77 +1219,77 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1604,8 +1600,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A64" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:H49"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1700,20 +1696,19 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="A7" s="73" t="str">
+        <f>"Протокол поверки № 10/"&amp;C103&amp;"/"&amp;D10</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
@@ -1728,17 +1723,17 @@
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="27" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="28"/>
@@ -1746,12 +1741,12 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="36" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="28"/>
@@ -1762,11 +1757,11 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -1776,13 +1771,13 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="44" t="s">
-        <v>234</v>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="43" t="s">
+        <v>233</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -1792,12 +1787,12 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="36" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="35" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="28"/>
@@ -1808,11 +1803,11 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="26" t="s">
         <v>92</v>
       </c>
@@ -1824,11 +1819,11 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="27" t="s">
         <v>94</v>
       </c>
@@ -1866,113 +1861,113 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53" t="s">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="60" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="60"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74" t="s">
+      <c r="F20" s="54"/>
+      <c r="G20" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="74"/>
+      <c r="H20" s="55"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74" t="s">
+      <c r="F21" s="54"/>
+      <c r="G21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="74"/>
+      <c r="H21" s="55"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74" t="s">
+      <c r="F22" s="54"/>
+      <c r="G22" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="74"/>
+      <c r="H22" s="55"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="74"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="74"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1988,7 +1983,7 @@
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -2060,7 +2055,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2099,94 +2094,94 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53" t="s">
+      <c r="D35" s="50"/>
+      <c r="E35" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53" t="s">
+      <c r="F35" s="50"/>
+      <c r="G35" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53" t="s">
+      <c r="H35" s="50"/>
+      <c r="I35" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="J35" s="53"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
@@ -2195,24 +2190,24 @@
       <c r="B41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59" t="s">
+      <c r="F41" s="57"/>
+      <c r="G41" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I41" s="61">
+      <c r="I41" s="51">
         <v>4</v>
       </c>
-      <c r="J41" s="61"/>
+      <c r="J41" s="51"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
@@ -2221,22 +2216,22 @@
       <c r="B42" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59" t="s">
+      <c r="F42" s="57"/>
+      <c r="G42" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="59"/>
-      <c r="G42" s="11" t="s">
+      <c r="H42" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
@@ -2245,24 +2240,24 @@
       <c r="B43" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59" t="s">
+      <c r="F43" s="57"/>
+      <c r="G43" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="59"/>
-      <c r="G43" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="68" t="s">
+      <c r="I43" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="J43" s="68"/>
+      <c r="J43" s="59"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
@@ -2271,22 +2266,22 @@
       <c r="B44" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59" t="s">
+      <c r="F44" s="57"/>
+      <c r="G44" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="59"/>
-      <c r="G44" s="11" t="s">
+      <c r="H44" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
@@ -2295,22 +2290,22 @@
       <c r="B45" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59" t="s">
+      <c r="F45" s="57"/>
+      <c r="G45" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="59"/>
-      <c r="G45" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H45" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
@@ -2319,22 +2314,22 @@
       <c r="B46" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59" t="s">
+      <c r="F46" s="57"/>
+      <c r="G46" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
@@ -2343,22 +2338,22 @@
       <c r="B47" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59" t="s">
+      <c r="F47" s="57"/>
+      <c r="G47" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="59"/>
-      <c r="G47" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
     </row>
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
@@ -2367,22 +2362,22 @@
       <c r="B48" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59" t="s">
+      <c r="F48" s="57"/>
+      <c r="G48" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F48" s="59"/>
-      <c r="G48" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
@@ -2391,22 +2386,22 @@
       <c r="B49" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59" t="s">
+      <c r="F49" s="57"/>
+      <c r="G49" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="11" t="s">
+      <c r="H49" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
@@ -2415,22 +2410,22 @@
       <c r="B50" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59" t="s">
+      <c r="F50" s="57"/>
+      <c r="G50" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="59"/>
-      <c r="G50" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
@@ -2439,22 +2434,22 @@
       <c r="B51" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59" t="s">
+      <c r="F51" s="57"/>
+      <c r="G51" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F51" s="59"/>
-      <c r="G51" s="11" t="s">
+      <c r="H51" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -2481,94 +2476,94 @@
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53" t="s">
+      <c r="D54" s="50"/>
+      <c r="E54" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53" t="s">
+      <c r="F54" s="50"/>
+      <c r="G54" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53" t="s">
+      <c r="H54" s="50"/>
+      <c r="I54" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="J54" s="53"/>
+      <c r="J54" s="50"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="60"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="60"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="60"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="60"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
       <c r="G58" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="66" t="s">
+      <c r="A59" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
     </row>
     <row r="60" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
@@ -2577,24 +2572,24 @@
       <c r="B60" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59" t="s">
+      <c r="F60" s="57"/>
+      <c r="G60" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F60" s="59"/>
-      <c r="G60" s="11" t="s">
+      <c r="H60" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I60" s="61">
+      <c r="I60" s="51">
         <v>4</v>
       </c>
-      <c r="J60" s="61"/>
+      <c r="J60" s="51"/>
     </row>
     <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
@@ -2603,22 +2598,22 @@
       <c r="B61" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59" t="s">
+      <c r="F61" s="57"/>
+      <c r="G61" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F61" s="59"/>
-      <c r="G61" s="11" t="s">
+      <c r="H61" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H61" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
     </row>
     <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
@@ -2627,24 +2622,24 @@
       <c r="B62" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59" t="s">
+      <c r="F62" s="57"/>
+      <c r="G62" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F62" s="59"/>
-      <c r="G62" s="11" t="s">
+      <c r="H62" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H62" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="I62" s="68" t="s">
+      <c r="I62" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="J62" s="68"/>
+      <c r="J62" s="59"/>
     </row>
     <row r="63" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
@@ -2653,22 +2648,22 @@
       <c r="B63" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59" t="s">
+      <c r="F63" s="57"/>
+      <c r="G63" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F63" s="59"/>
-      <c r="G63" s="11" t="s">
+      <c r="H63" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
     </row>
     <row r="64" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
@@ -2677,22 +2672,22 @@
       <c r="B64" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59" t="s">
+      <c r="F64" s="57"/>
+      <c r="G64" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F64" s="59"/>
-      <c r="G64" s="11" t="s">
+      <c r="H64" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
     </row>
     <row r="65" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
@@ -2701,22 +2696,22 @@
       <c r="B65" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59" t="s">
+      <c r="F65" s="57"/>
+      <c r="G65" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="11" t="s">
+      <c r="H65" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
     </row>
     <row r="66" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
@@ -2725,22 +2720,22 @@
       <c r="B66" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="59" t="s">
+      <c r="C66" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59" t="s">
+      <c r="F66" s="57"/>
+      <c r="G66" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F66" s="59"/>
-      <c r="G66" s="11" t="s">
+      <c r="H66" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
     </row>
     <row r="67" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
@@ -2749,22 +2744,22 @@
       <c r="B67" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59" t="s">
+      <c r="F67" s="57"/>
+      <c r="G67" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="11" t="s">
+      <c r="H67" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="I67" s="68"/>
-      <c r="J67" s="68"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
     </row>
     <row r="68" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
@@ -2773,22 +2768,22 @@
       <c r="B68" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="59" t="s">
+      <c r="C68" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59" t="s">
+      <c r="F68" s="57"/>
+      <c r="G68" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F68" s="59"/>
-      <c r="G68" s="11" t="s">
+      <c r="H68" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
     </row>
     <row r="69" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
@@ -2797,22 +2792,22 @@
       <c r="B69" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C69" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59" t="s">
+      <c r="F69" s="57"/>
+      <c r="G69" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="11" t="s">
+      <c r="H69" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
     </row>
     <row r="70" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
@@ -2821,22 +2816,22 @@
       <c r="B70" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="59" t="s">
+      <c r="C70" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59" t="s">
+      <c r="F70" s="57"/>
+      <c r="G70" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F70" s="59"/>
-      <c r="G70" s="11" t="s">
+      <c r="H70" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="I70" s="68"/>
-      <c r="J70" s="68"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
     </row>
     <row r="71" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
@@ -2856,47 +2851,47 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="60" t="s">
+      <c r="A73" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="53" t="s">
+      <c r="C73" s="58"/>
+      <c r="D73" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53" t="s">
+      <c r="E73" s="50"/>
+      <c r="F73" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="53"/>
-      <c r="H73" s="60" t="s">
+      <c r="G73" s="50"/>
+      <c r="H73" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
+      <c r="I73" s="58"/>
+      <c r="J73" s="58"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="60"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="60"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="58"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="60"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
+      <c r="A75" s="58"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
       <c r="H75" s="13" t="s">
         <v>84</v>
       </c>
@@ -2906,87 +2901,87 @@
       <c r="J75" s="65"/>
     </row>
     <row r="76" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="61">
+      <c r="A76" s="51">
         <v>1</v>
       </c>
       <c r="B76" s="14">
         <v>5</v>
       </c>
-      <c r="C76" s="61" t="s">
+      <c r="C76" s="51" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="16">
         <v>2.5</v>
       </c>
-      <c r="E76" s="61" t="s">
+      <c r="E76" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="F76" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="G76" s="61" t="s">
+      <c r="F76" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="G76" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="H76" s="41" t="s">
-        <v>198</v>
+      <c r="H76" s="40" t="s">
+        <v>197</v>
       </c>
       <c r="I76" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J76" s="61" t="s">
+      <c r="J76" s="51" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="61"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="14">
         <v>100</v>
       </c>
-      <c r="C77" s="61"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="16">
         <v>50</v>
       </c>
-      <c r="E77" s="61"/>
-      <c r="F77" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="G77" s="61"/>
-      <c r="H77" s="41" t="s">
-        <v>199</v>
+      <c r="E77" s="51"/>
+      <c r="F77" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="G77" s="51"/>
+      <c r="H77" s="40" t="s">
+        <v>198</v>
       </c>
       <c r="I77" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J77" s="61"/>
+      <c r="J77" s="51"/>
     </row>
     <row r="78" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="61"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="14">
         <v>500</v>
       </c>
-      <c r="C78" s="61"/>
+      <c r="C78" s="51"/>
       <c r="D78" s="16">
         <v>250</v>
       </c>
-      <c r="E78" s="61"/>
-      <c r="F78" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="G78" s="61"/>
-      <c r="H78" s="41" t="s">
-        <v>200</v>
+      <c r="E78" s="51"/>
+      <c r="F78" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="G78" s="51"/>
+      <c r="H78" s="40" t="s">
+        <v>199</v>
       </c>
       <c r="I78" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J78" s="61"/>
+      <c r="J78" s="51"/>
     </row>
     <row r="79" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="61"/>
+      <c r="A79" s="51"/>
       <c r="B79" s="14">
         <v>1</v>
       </c>
-      <c r="C79" s="61" t="s">
+      <c r="C79" s="51" t="s">
         <v>74</v>
       </c>
       <c r="D79" s="16">
@@ -2995,128 +2990,128 @@
       <c r="E79" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F79" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="G79" s="61" t="s">
+      <c r="F79" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="G79" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H79" s="41" t="s">
-        <v>201</v>
+      <c r="H79" s="40" t="s">
+        <v>200</v>
       </c>
       <c r="I79" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J79" s="61" t="s">
+      <c r="J79" s="51" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="61"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="14">
         <v>5</v>
       </c>
-      <c r="C80" s="61"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="16">
         <v>2.5</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F80" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="G80" s="61"/>
-      <c r="H80" s="41" t="s">
-        <v>202</v>
+      <c r="F80" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="G80" s="51"/>
+      <c r="H80" s="40" t="s">
+        <v>201</v>
       </c>
       <c r="I80" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J80" s="61"/>
+      <c r="J80" s="51"/>
     </row>
     <row r="81" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="61">
+      <c r="A81" s="51">
         <v>2</v>
       </c>
       <c r="B81" s="14">
         <v>5</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="51" t="s">
         <v>68</v>
       </c>
       <c r="D81" s="16">
         <v>2.5</v>
       </c>
-      <c r="E81" s="61" t="s">
+      <c r="E81" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="F81" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="G81" s="61" t="s">
+      <c r="F81" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="G81" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="H81" s="41" t="s">
-        <v>203</v>
+      <c r="H81" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="I81" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J81" s="61" t="s">
+      <c r="J81" s="51" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="61"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="14">
         <v>100</v>
       </c>
-      <c r="C82" s="61"/>
+      <c r="C82" s="51"/>
       <c r="D82" s="16">
         <v>50</v>
       </c>
-      <c r="E82" s="61"/>
-      <c r="F82" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="G82" s="61"/>
-      <c r="H82" s="41" t="s">
-        <v>204</v>
+      <c r="E82" s="51"/>
+      <c r="F82" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G82" s="51"/>
+      <c r="H82" s="40" t="s">
+        <v>203</v>
       </c>
       <c r="I82" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J82" s="61"/>
+      <c r="J82" s="51"/>
     </row>
     <row r="83" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="61"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="14">
         <v>500</v>
       </c>
-      <c r="C83" s="61"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="16">
         <v>250</v>
       </c>
-      <c r="E83" s="61"/>
-      <c r="F83" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="G83" s="61"/>
-      <c r="H83" s="41" t="s">
-        <v>205</v>
+      <c r="E83" s="51"/>
+      <c r="F83" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="G83" s="51"/>
+      <c r="H83" s="40" t="s">
+        <v>204</v>
       </c>
       <c r="I83" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J83" s="61"/>
+      <c r="J83" s="51"/>
     </row>
     <row r="84" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="61"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="14">
         <v>1</v>
       </c>
-      <c r="C84" s="61" t="s">
+      <c r="C84" s="51" t="s">
         <v>74</v>
       </c>
       <c r="D84" s="16">
@@ -3125,57 +3120,57 @@
       <c r="E84" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F84" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="G84" s="61" t="s">
+      <c r="F84" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="G84" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H84" s="41" t="s">
-        <v>206</v>
+      <c r="H84" s="40" t="s">
+        <v>205</v>
       </c>
       <c r="I84" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J84" s="61" t="s">
+      <c r="J84" s="51" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="61"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="14">
         <v>5</v>
       </c>
-      <c r="C85" s="61"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="16">
         <v>2.5</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F85" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="G85" s="61"/>
-      <c r="H85" s="41" t="s">
-        <v>207</v>
+      <c r="F85" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="G85" s="51"/>
+      <c r="H85" s="40" t="s">
+        <v>206</v>
       </c>
       <c r="I85" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J85" s="61"/>
+      <c r="J85" s="51"/>
     </row>
     <row r="86" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="46"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="45"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="48"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
@@ -3192,272 +3187,272 @@
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="55" t="s">
+      <c r="A88" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="B88" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="B88" s="53" t="s">
+      <c r="C88" s="50"/>
+      <c r="D88" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="C88" s="53"/>
-      <c r="D88" s="61" t="s">
+      <c r="E88" s="44"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="70"/>
+      <c r="B89" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="E88" s="45"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="56"/>
-      <c r="B89" s="37" t="s">
+      <c r="C89" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="D89" s="51"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+    </row>
+    <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-    </row>
-    <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B90" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="C90" s="40" t="s">
+      <c r="D90" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="E90" s="46"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+    </row>
+    <row r="91" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="D90" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="E90" s="47"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-    </row>
-    <row r="91" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B91" s="40" t="s">
+      <c r="C91" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="C91" s="40" t="s">
+      <c r="D91" s="51"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+    </row>
+    <row r="92" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="D91" s="61"/>
-      <c r="E91" s="47"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
-    </row>
-    <row r="92" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B92" s="40" t="s">
+      <c r="C92" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="C92" s="40" t="s">
+      <c r="D92" s="51"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+    </row>
+    <row r="93" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="D92" s="61"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93" s="40" t="s">
+      <c r="C93" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="D93" s="51"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+    </row>
+    <row r="94" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="D93" s="61"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
-    </row>
-    <row r="94" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B94" s="40" t="s">
+      <c r="C94" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="C94" s="40" t="s">
+      <c r="D94" s="51"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+    </row>
+    <row r="95" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="D94" s="61"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-    </row>
-    <row r="95" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B95" s="40" t="s">
+      <c r="C95" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="C95" s="40" t="s">
+      <c r="D95" s="51"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+    </row>
+    <row r="96" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-    </row>
-    <row r="96" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B96" s="40" t="s">
+      <c r="C96" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C96" s="40" t="s">
+      <c r="D96" s="51"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+    </row>
+    <row r="97" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="D96" s="61"/>
-      <c r="E96" s="47"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="38"/>
-    </row>
-    <row r="97" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B97" s="40" t="s">
+      <c r="C97" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="C97" s="40" t="s">
+      <c r="D97" s="51"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
+    </row>
+    <row r="98" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="D97" s="61"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="38"/>
-    </row>
-    <row r="98" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B98" s="40" t="s">
+      <c r="C98" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="C98" s="40" t="s">
+      <c r="D98" s="51"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+    </row>
+    <row r="99" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="D98" s="61"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="38"/>
-    </row>
-    <row r="99" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B99" s="40" t="s">
+      <c r="C99" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="C99" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="D99" s="61"/>
-      <c r="E99" s="47"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="46"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="38"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="38"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="38"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
     </row>
     <row r="101" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="51" t="s">
+      <c r="A101" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="51"/>
-      <c r="C101" s="70"/>
-      <c r="D101" s="70"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
       <c r="E101" s="9"/>
       <c r="F101" s="33"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="51" t="s">
+      <c r="A102" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="51"/>
+      <c r="B102" s="66"/>
       <c r="C102" s="7"/>
       <c r="D102" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E102" s="57" t="s">
+      <c r="E102" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="F102" s="58"/>
+      <c r="F102" s="72"/>
       <c r="G102" s="9" t="s">
         <v>43</v>
       </c>
       <c r="H102" s="10"/>
     </row>
     <row r="103" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="51" t="s">
+      <c r="A103" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="51"/>
-      <c r="C103" s="52" t="s">
+      <c r="B103" s="66"/>
+      <c r="C103" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D103" s="52"/>
+      <c r="D103" s="67"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -3465,43 +3460,71 @@
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D90:D99"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="G35:H38"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E35:F39"/>
+    <mergeCell ref="I35:J39"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:D58"/>
+    <mergeCell ref="E54:F58"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="D73:E75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="F73:G75"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:D39"/>
+    <mergeCell ref="H73:J74"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I41:J42"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="I43:J51"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
     <mergeCell ref="J84:J85"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A18:D19"/>
@@ -3526,70 +3549,42 @@
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I41:J42"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="I43:J51"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="D73:E75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="F73:G75"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:D39"/>
-    <mergeCell ref="H73:J74"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="G35:H38"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E35:F39"/>
-    <mergeCell ref="I35:J39"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:D58"/>
-    <mergeCell ref="E54:F58"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D90:D99"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.78125" header="0.51181102362204722" footer="0.51181102362204722"/>
